--- a/BackTest/2019-10-29 BackTest LINK.xlsx
+++ b/BackTest/2019-10-29 BackTest LINK.xlsx
@@ -871,20 +871,14 @@
         <v>3096.35</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>3105</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -912,20 +906,14 @@
         <v>3095.75</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>3088</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -960,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -999,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1031,20 +1011,14 @@
         <v>3093.9</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>3088</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1072,20 +1046,14 @@
         <v>3093.6</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>3088</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1113,20 +1081,14 @@
         <v>3092.95</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>3087</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1154,20 +1116,14 @@
         <v>3092.25</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>3086</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1195,20 +1151,14 @@
         <v>3090.55</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>3083</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1236,20 +1186,14 @@
         <v>3089.65</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>3082</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1277,20 +1221,14 @@
         <v>3088.3</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>3079</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1325,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1357,20 +1291,14 @@
         <v>3086.7</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>3072</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1398,20 +1326,14 @@
         <v>3085.95</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>3075</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1446,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1478,20 +1396,14 @@
         <v>3085.6</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>3086</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1519,20 +1431,14 @@
         <v>3085</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>3076</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1560,20 +1466,14 @@
         <v>3084.6</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>3080</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1601,20 +1501,14 @@
         <v>3084.2</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>3080</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1642,20 +1536,14 @@
         <v>3084.05</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>3086</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1683,20 +1571,14 @@
         <v>3083.15</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>3087</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1724,20 +1606,14 @@
         <v>3083.25</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>3090</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1765,20 +1641,14 @@
         <v>3083.45</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>3092</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1806,20 +1676,14 @@
         <v>3083.25</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>3084</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1847,20 +1711,14 @@
         <v>3083.3</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>3089</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1888,20 +1746,14 @@
         <v>3083.05</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>3083</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1929,20 +1781,14 @@
         <v>3082.8</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>3082</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1970,20 +1816,14 @@
         <v>3082.5</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>3080</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2011,20 +1851,14 @@
         <v>3082.35</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>3080</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2052,20 +1886,14 @@
         <v>3082.2</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>3079</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2093,20 +1921,14 @@
         <v>3081.8</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2134,20 +1956,14 @@
         <v>3081.45</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>3070</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2175,20 +1991,14 @@
         <v>3081.35</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>3070</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2216,20 +2026,14 @@
         <v>3081.1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>3070</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2257,20 +2061,14 @@
         <v>3080.25</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>3070</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2298,20 +2096,14 @@
         <v>3079.45</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>3070</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2339,20 +2131,14 @@
         <v>3079.6</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>3079</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2380,20 +2166,14 @@
         <v>3079.6</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>3080</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2421,20 +2201,14 @@
         <v>3079.15</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2462,20 +2236,14 @@
         <v>3078.85</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>3080</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2503,20 +2271,14 @@
         <v>3078.25</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>3075</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2544,20 +2306,14 @@
         <v>3077.3</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2585,20 +2341,14 @@
         <v>3076.25</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2626,20 +2376,14 @@
         <v>3075.65</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>3072</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2667,20 +2411,14 @@
         <v>3074.75</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2708,20 +2446,14 @@
         <v>3074.15</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2749,20 +2481,14 @@
         <v>3073.9</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>3077</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2790,20 +2516,14 @@
         <v>3073.8</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>3078</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2831,20 +2551,14 @@
         <v>3073.7</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>3078</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2872,20 +2586,14 @@
         <v>3074.25</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>3090</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2913,20 +2621,14 @@
         <v>3074.7</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>3080</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2954,20 +2656,14 @@
         <v>3075.2</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>3080</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2995,20 +2691,14 @@
         <v>3075.7</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>3080</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3036,20 +2726,14 @@
         <v>3076.2</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>3080</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3077,20 +2761,14 @@
         <v>3077.15</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>3089</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3118,20 +2796,14 @@
         <v>3078.1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>3089</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3159,20 +2831,14 @@
         <v>3078.6</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>3089</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3200,20 +2866,14 @@
         <v>3079.05</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>3089</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3241,20 +2901,14 @@
         <v>3079.95</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>3089</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3282,20 +2936,14 @@
         <v>3080.2</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>3085</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3323,20 +2971,14 @@
         <v>3080.7</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>3085</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3364,20 +3006,14 @@
         <v>3081.4</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>3085</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3405,20 +3041,14 @@
         <v>3082.1</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>3085</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3446,20 +3076,14 @@
         <v>3082.5</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>3080</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3487,20 +3111,14 @@
         <v>3083.2</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>3085</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3528,20 +3146,14 @@
         <v>3083.85</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>3084</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3569,20 +3181,14 @@
         <v>3084.6</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>3092</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3610,20 +3216,14 @@
         <v>3085.3</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>3092</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3651,20 +3251,14 @@
         <v>3085.75</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>3087</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3692,20 +3286,14 @@
         <v>3086.75</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>3110</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3733,20 +3321,14 @@
         <v>3088.1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>3107</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3774,20 +3356,14 @@
         <v>3089.4</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>3106</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3815,20 +3391,14 @@
         <v>3090.4</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>3100</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3863,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3902,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3941,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3980,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4019,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4058,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4097,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4136,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4175,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4214,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4253,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4292,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4331,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4370,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4409,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4448,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4487,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4526,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4565,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4604,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4643,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4682,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4721,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4760,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4799,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4838,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4877,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4916,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4955,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4994,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5033,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5072,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5111,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5150,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5189,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5228,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5267,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5306,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5345,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5384,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5423,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5462,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5501,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5540,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5579,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5618,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5657,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5696,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5735,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5774,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5813,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5852,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5891,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5930,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5969,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6008,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6047,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6086,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6125,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6164,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6203,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6242,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6281,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6320,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6359,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6398,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6437,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6476,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6515,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6554,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6593,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6632,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6671,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6710,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6749,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6788,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6827,11 +6093,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6866,11 +6128,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6905,11 +6163,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6944,11 +6198,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6983,11 +6233,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7022,11 +6268,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7061,11 +6303,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7100,11 +6338,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7139,11 +6373,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7178,11 +6408,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7217,11 +6443,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7256,11 +6478,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7295,11 +6513,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7334,11 +6548,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7373,11 +6583,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7412,11 +6618,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7451,11 +6653,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7490,11 +6688,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7529,11 +6723,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7568,11 +6758,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7607,11 +6793,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7646,11 +6828,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7685,11 +6863,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7724,11 +6898,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7763,11 +6933,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7802,11 +6968,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7841,11 +7003,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7880,11 +7038,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7919,11 +7073,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7958,11 +7108,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7997,11 +7143,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8036,11 +7178,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8075,11 +7213,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8114,11 +7248,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8153,11 +7283,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8192,11 +7318,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8231,11 +7353,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8270,11 +7388,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8309,11 +7423,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8348,11 +7458,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8387,11 +7493,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8426,11 +7528,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8465,11 +7563,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8504,11 +7598,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8543,11 +7633,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8582,11 +7668,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8621,11 +7703,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8660,11 +7738,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8699,11 +7773,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8738,11 +7808,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8777,11 +7843,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8816,11 +7878,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8855,11 +7913,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8894,11 +7948,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8933,11 +7983,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8972,11 +8018,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9011,11 +8053,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9050,11 +8088,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9089,11 +8123,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9128,11 +8158,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9167,11 +8193,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9206,11 +8228,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9245,11 +8263,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9284,11 +8298,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9323,11 +8333,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9362,11 +8368,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9401,11 +8403,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9440,11 +8438,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9479,11 +8473,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9518,11 +8508,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9557,12 +8543,10 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9695,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
@@ -9835,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
@@ -14942,14 +13926,20 @@
         <v>3223.4</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>3193</v>
+      </c>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14977,14 +13967,20 @@
         <v>3221.8</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>3193</v>
+      </c>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15012,14 +14008,20 @@
         <v>3220.25</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>3196</v>
+      </c>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15047,14 +14049,20 @@
         <v>3218.8</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>3201</v>
+      </c>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15082,14 +14090,20 @@
         <v>3216.7</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>3201</v>
+      </c>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15117,14 +14131,20 @@
         <v>3216.2</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>3207</v>
+      </c>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15152,14 +14172,20 @@
         <v>3216.3</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>3222</v>
+      </c>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15187,14 +14213,20 @@
         <v>3216.4</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>3222</v>
+      </c>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15222,14 +14254,20 @@
         <v>3216.55</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>3222</v>
+      </c>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15264,7 +14302,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15299,7 +14341,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15334,7 +14380,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15369,7 +14419,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15404,7 +14458,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15439,7 +14497,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15474,7 +14536,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15509,7 +14575,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15544,7 +14614,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15579,7 +14653,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15614,7 +14692,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15649,7 +14731,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15684,7 +14770,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15719,7 +14809,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15754,7 +14848,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15789,7 +14887,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15824,7 +14926,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15859,7 +14965,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15894,7 +15004,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15929,7 +15043,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15964,7 +15082,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15999,7 +15121,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16034,7 +15160,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16069,7 +15199,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16104,7 +15238,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16139,7 +15277,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16174,7 +15316,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16209,7 +15355,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16244,7 +15394,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16279,7 +15433,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16314,7 +15472,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16349,7 +15511,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16384,7 +15550,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16419,7 +15589,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16454,7 +15628,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16489,7 +15667,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16524,7 +15706,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16559,7 +15745,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16594,7 +15784,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16629,7 +15823,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16664,7 +15862,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16699,7 +15901,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16734,7 +15940,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16769,7 +15979,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16804,7 +16018,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16839,7 +16057,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16874,7 +16096,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16909,7 +16135,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16944,7 +16174,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16979,7 +16213,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17014,7 +16252,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17049,7 +16291,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17084,7 +16330,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17119,7 +16369,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17154,7 +16408,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17189,7 +16447,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17224,7 +16486,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17259,7 +16525,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17294,7 +16564,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17329,7 +16603,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17364,7 +16642,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17399,7 +16681,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17434,7 +16720,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17469,7 +16759,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17504,7 +16798,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17539,7 +16837,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17574,7 +16876,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17609,7 +16915,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17644,7 +16954,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17679,7 +16993,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17714,7 +17032,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17749,7 +17071,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17784,7 +17110,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17819,7 +17149,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17854,7 +17188,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17889,7 +17227,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17924,7 +17266,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17959,7 +17305,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17994,7 +17344,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18029,7 +17383,11 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18064,7 +17422,11 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18099,7 +17461,11 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18134,7 +17500,11 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18169,7 +17539,11 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18204,7 +17578,11 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -18239,7 +17617,11 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -18274,7 +17656,11 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -18309,7 +17695,11 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18344,7 +17734,11 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18379,7 +17773,11 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18414,7 +17812,11 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18449,7 +17851,11 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18484,7 +17890,11 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18519,7 +17929,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18554,7 +17968,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18589,7 +18007,11 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18624,7 +18046,11 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18659,7 +18085,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18694,7 +18124,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18729,7 +18163,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18764,7 +18202,11 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18799,7 +18241,11 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18834,7 +18280,11 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18869,7 +18319,11 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18904,7 +18358,11 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18939,7 +18397,11 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18974,7 +18436,11 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -19009,7 +18475,11 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -19044,7 +18514,11 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -19079,7 +18553,11 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -19114,7 +18592,11 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -19149,7 +18631,11 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -19184,7 +18670,11 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -19219,7 +18709,11 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19254,7 +18748,11 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19289,7 +18787,11 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19324,7 +18826,11 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19359,7 +18865,11 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19394,7 +18904,11 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19429,7 +18943,11 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19464,7 +18982,11 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19499,7 +19021,11 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19534,7 +19060,11 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19569,7 +19099,11 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19604,7 +19138,11 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19639,7 +19177,11 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19674,7 +19216,11 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19709,7 +19255,11 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19744,7 +19294,11 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19779,7 +19333,11 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19814,7 +19372,11 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19849,7 +19411,11 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19884,7 +19450,11 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19919,7 +19489,11 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19954,7 +19528,11 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19989,7 +19567,11 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20024,7 +19606,11 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20059,7 +19645,11 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20094,7 +19684,11 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20129,7 +19723,11 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20164,7 +19762,11 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20199,7 +19801,11 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20234,7 +19840,11 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -20269,7 +19879,11 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -20304,7 +19918,11 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20339,7 +19957,11 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20374,7 +19996,11 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20409,7 +20035,11 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20444,7 +20074,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20479,7 +20113,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20514,7 +20152,11 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20549,7 +20191,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20584,7 +20230,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20619,7 +20269,11 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20654,7 +20308,11 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20689,7 +20347,11 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20724,7 +20386,11 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20759,7 +20425,11 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20794,7 +20464,11 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20829,7 +20503,11 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20864,7 +20542,11 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20899,7 +20581,11 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20934,7 +20620,11 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20969,7 +20659,11 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -21004,7 +20698,11 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -21039,7 +20737,11 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21074,7 +20776,11 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21109,7 +20815,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21144,7 +20854,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21179,7 +20893,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21214,7 +20932,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21249,7 +20971,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21284,7 +21010,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21319,7 +21049,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21354,7 +21088,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21389,7 +21127,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21424,7 +21166,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21459,7 +21205,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21494,7 +21244,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21529,7 +21283,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21564,7 +21322,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21599,7 +21361,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21634,7 +21400,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21669,7 +21439,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21704,7 +21478,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21739,7 +21517,11 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21774,7 +21556,11 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21809,7 +21595,11 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21844,7 +21634,11 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21879,7 +21673,11 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -21914,7 +21712,11 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -21949,7 +21751,11 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -21984,7 +21790,11 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -22019,7 +21829,11 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -22054,7 +21868,11 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -22089,7 +21907,11 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -22124,7 +21946,11 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -22159,7 +21985,11 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -22194,7 +22024,11 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -22229,7 +22063,11 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -22264,7 +22102,11 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -22299,7 +22141,11 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -22334,7 +22180,11 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -22369,7 +22219,11 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -22404,7 +22258,11 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -22439,7 +22297,11 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -22474,7 +22336,11 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -22509,7 +22375,11 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -22544,7 +22414,11 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -22579,7 +22453,11 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -22614,7 +22492,11 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -22649,7 +22531,11 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -22684,7 +22570,11 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22719,7 +22609,11 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22754,7 +22648,11 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -22789,7 +22687,11 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -22824,7 +22726,11 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -22859,7 +22765,11 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -22894,7 +22804,11 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -22929,7 +22843,11 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -22964,7 +22882,11 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -22999,7 +22921,11 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -23034,7 +22960,11 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -23069,7 +22999,11 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -23104,7 +23038,11 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -23139,7 +23077,11 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -23174,7 +23116,11 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -23209,7 +23155,11 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -23244,7 +23194,11 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -23279,7 +23233,11 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -23314,7 +23272,11 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -23349,7 +23311,11 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -23384,7 +23350,11 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -23419,7 +23389,11 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -23454,7 +23428,11 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -23489,7 +23467,11 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -23524,7 +23506,11 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -23559,7 +23545,11 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -23594,7 +23584,11 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -23629,7 +23623,11 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23664,7 +23662,11 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23699,7 +23701,11 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23734,7 +23740,11 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23769,7 +23779,11 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23804,7 +23818,11 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -23839,7 +23857,11 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -23867,14 +23889,20 @@
         <v>3218.8</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
       </c>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>3226</v>
+      </c>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -23909,7 +23937,11 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -23944,7 +23976,11 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-29 BackTest LINK.xlsx
+++ b/BackTest/2019-10-29 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1408,11 +1408,17 @@
         <v>-9106.681451891413</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3093</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1451,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1488,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1525,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1562,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1599,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1632,17 @@
         <v>-9620.810998231302</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3102</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1675,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1712,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1749,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1786,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1823,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1860,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +1897,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +1934,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +1971,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2008,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2045,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2082,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2119,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2156,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2193,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2230,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2267,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2304,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2341,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2378,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2415,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2452,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2489,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2526,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2563,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2600,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2637,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2674,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2711,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2744,17 @@
         <v>-18505.31066909287</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3090</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2783,17 @@
         <v>-19661.51126909287</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3090</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2822,17 @@
         <v>-20806.51106909287</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3089</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2861,17 @@
         <v>-20806.51106909287</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3088</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2900,17 @@
         <v>-20806.51106909287</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3088</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2939,17 @@
         <v>-20248.85816909287</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3088</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2978,17 @@
         <v>-20487.21256909287</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3089</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3017,17 @@
         <v>-19933.73666909287</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3088</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3060,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3097,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3130,17 @@
         <v>-20575.90956909287</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3087</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3169,17 @@
         <v>-20647.36446909287</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3089</v>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3208,17 @@
         <v>-22877.58226909287</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3088</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3247,17 @@
         <v>-25510.85306909287</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3086</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3286,17 @@
         <v>-26157.75886909287</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3083</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3325,17 @@
         <v>-31552.64076909287</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3082</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3364,17 @@
         <v>-32363.05556909287</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3080</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3403,17 @@
         <v>-32363.05556909287</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3072</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3442,17 @@
         <v>-25038.24266909287</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3072</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3485,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3522,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3555,17 @@
         <v>-24836.14266909287</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3073</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3598,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3631,17 @@
         <v>-24836.14266909287</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3080</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3670,17 @@
         <v>-23483.77081737321</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3080</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3709,17 @@
         <v>-23313.80131737321</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3083</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3748,17 @@
         <v>-23111.81254488624</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3087</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3787,17 @@
         <v>-23242.81231884151</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3090</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3826,17 @@
         <v>-23242.81231884151</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3085</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3865,17 @@
         <v>-23245.81231884151</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3085</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3904,17 @@
         <v>-23245.81231884151</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3084</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3943,17 @@
         <v>-23258.81459009395</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3084</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3982,17 @@
         <v>-23417.5677877189</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3082</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +4021,17 @@
         <v>-23417.5677877189</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3080</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +4060,17 @@
         <v>-23417.5677877189</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3080</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +4099,17 @@
         <v>-23417.5677877189</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3080</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4138,17 @@
         <v>-25604.6657877189</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3080</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4177,17 @@
         <v>-25604.6657877189</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3070</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4216,17 @@
         <v>-25430.5657877189</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3070</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4255,17 @@
         <v>-25549.2348877189</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3079</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4294,17 @@
         <v>-25549.2348877189</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3070</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4333,17 @@
         <v>-25549.2348877189</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3070</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4372,17 @@
         <v>-25502.3701877189</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3070</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4411,17 @@
         <v>-25812.6436877189</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3080</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4450,17 @@
         <v>-25785.1541877189</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3071</v>
+      </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4489,17 @@
         <v>-25785.1541877189</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3080</v>
+      </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4528,17 @@
         <v>-26434.4428877189</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3080</v>
+      </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4567,17 @@
         <v>-26956.2412877189</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3075</v>
+      </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,15 +4606,17 @@
         <v>-26956.2412877189</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>3071</v>
       </c>
-      <c r="J115" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,17 +4645,15 @@
         <v>-26953.2487877189</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>3071</v>
       </c>
-      <c r="J116" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L116" t="n">
@@ -4258,17 +4684,15 @@
         <v>-27164.0560877189</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>3072</v>
       </c>
-      <c r="J117" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -4299,15 +4723,17 @@
         <v>-27164.0560877189</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>3071</v>
       </c>
-      <c r="J118" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4336,17 +4762,15 @@
         <v>-26866.8055877189</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>3071</v>
       </c>
-      <c r="J119" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -4377,17 +4801,15 @@
         <v>-26866.8055877189</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>3078</v>
       </c>
-      <c r="J120" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L120" t="n">
@@ -4418,17 +4840,15 @@
         <v>-26219.11726323704</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>3078</v>
       </c>
-      <c r="J121" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -4459,14 +4879,12 @@
         <v>-20314.88595977538</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>3088</v>
       </c>
-      <c r="J122" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4500,14 +4918,12 @@
         <v>-20324.86095977537</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>3090</v>
       </c>
-      <c r="J123" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4541,12 +4957,12 @@
         <v>-21398.98745977537</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>3071</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3080</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4583,9 +4999,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4622,9 +5036,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4658,14 +5070,12 @@
         <v>-20565.70935977537</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>3080</v>
       </c>
-      <c r="J127" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4699,14 +5109,12 @@
         <v>-20565.70935977537</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>3089</v>
       </c>
-      <c r="J128" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4740,12 +5148,12 @@
         <v>-20565.70935977537</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>3071</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3089</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4779,12 +5187,12 @@
         <v>-19271.76105977537</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>3071</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3089</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4818,12 +5226,12 @@
         <v>-19698.94255977537</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>3071</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>3092</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4860,9 +5268,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4899,9 +5305,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4935,12 +5339,12 @@
         <v>-19925.82515977537</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>3071</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>3085</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4977,9 +5381,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5016,9 +5418,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5055,9 +5455,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5094,9 +5492,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5133,9 +5529,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5169,12 +5563,12 @@
         <v>-20479.84675977537</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>3071</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>3092</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5211,9 +5605,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5247,12 +5639,12 @@
         <v>-21751.71843276572</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>3071</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>3085</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5289,9 +5681,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5328,9 +5718,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5367,9 +5755,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5406,9 +5792,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5445,9 +5829,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5484,9 +5866,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5523,9 +5903,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5562,9 +5940,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5601,9 +5977,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5640,9 +6014,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5679,9 +6051,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5718,9 +6088,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5757,9 +6125,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5796,9 +6162,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5835,9 +6199,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5874,9 +6236,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5913,9 +6273,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5952,9 +6310,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5991,9 +6347,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6030,9 +6384,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6069,9 +6421,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6108,9 +6458,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6147,9 +6495,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6186,9 +6532,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6225,9 +6569,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6264,9 +6606,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6303,9 +6643,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6342,9 +6680,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6381,9 +6717,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6420,9 +6754,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6459,9 +6791,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6498,9 +6828,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6537,9 +6865,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6576,9 +6902,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6615,9 +6939,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6654,9 +6976,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6693,9 +7013,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6732,9 +7050,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6771,9 +7087,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6810,9 +7124,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6849,9 +7161,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6888,9 +7198,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6927,9 +7235,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6966,9 +7272,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7005,9 +7309,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7044,9 +7346,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7083,9 +7383,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7122,9 +7420,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7161,9 +7457,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7200,9 +7494,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7239,9 +7531,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7278,9 +7568,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7317,9 +7605,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7356,9 +7642,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7395,9 +7679,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7434,9 +7716,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7473,9 +7753,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7512,9 +7790,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7551,9 +7827,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7590,9 +7864,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7629,9 +7901,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7668,9 +7938,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7707,9 +7975,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7746,9 +8012,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7785,9 +8049,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7824,9 +8086,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7863,9 +8123,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7902,9 +8160,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7941,9 +8197,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7980,9 +8234,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8019,9 +8271,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8058,9 +8308,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8097,9 +8345,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8136,9 +8382,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8175,9 +8419,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8214,9 +8456,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8253,9 +8493,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8292,9 +8530,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8331,9 +8567,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8370,9 +8604,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8409,9 +8641,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8448,9 +8678,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8487,9 +8715,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8526,9 +8752,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8565,9 +8789,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8604,9 +8826,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8643,9 +8863,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8682,9 +8900,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8721,9 +8937,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8760,9 +8974,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8799,9 +9011,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8838,9 +9048,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8877,9 +9085,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8916,9 +9122,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8955,9 +9159,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8994,9 +9196,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9033,9 +9233,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9072,9 +9270,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9111,9 +9307,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9150,9 +9344,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9189,9 +9381,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9228,9 +9418,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9267,9 +9455,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9306,9 +9492,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9345,9 +9529,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9384,9 +9566,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9423,9 +9603,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9462,9 +9640,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9501,9 +9677,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9540,9 +9714,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9579,9 +9751,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9618,9 +9788,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9657,9 +9825,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9696,9 +9862,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9735,9 +9899,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9774,9 +9936,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9813,9 +9973,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9852,9 +10010,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9891,9 +10047,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9930,9 +10084,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9969,9 +10121,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10008,9 +10158,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10047,9 +10195,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10086,9 +10232,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10125,9 +10269,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10164,9 +10306,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10203,9 +10343,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10242,9 +10380,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10281,9 +10417,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10320,9 +10454,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10359,9 +10491,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10398,9 +10528,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10437,9 +10565,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10476,9 +10602,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10515,9 +10639,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10554,9 +10676,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10593,9 +10713,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10632,9 +10750,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10671,9 +10787,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10710,9 +10824,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10749,9 +10861,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10788,9 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10827,9 +10935,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10866,9 +10972,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10905,9 +11009,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10944,9 +11046,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10983,9 +11083,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11022,9 +11120,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11061,9 +11157,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11100,9 +11194,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11139,9 +11231,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11178,9 +11268,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11217,9 +11305,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11256,9 +11342,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11295,9 +11379,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11334,9 +11416,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11373,9 +11453,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11412,9 +11490,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11451,9 +11527,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11490,9 +11564,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11529,9 +11601,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11568,9 +11638,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11607,9 +11675,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11646,9 +11712,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11685,9 +11749,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11721,12 +11783,10 @@
         <v>56257.35308729565</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11763,9 +11823,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11802,9 +11860,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11841,9 +11897,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11877,12 +11931,10 @@
         <v>53646.76499583593</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11919,9 +11971,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11955,12 +12005,10 @@
         <v>57210.61582829047</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11997,9 +12045,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12033,12 +12079,10 @@
         <v>56368.09404492089</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12075,9 +12119,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12111,20 +12153,16 @@
         <v>54736.33404492088</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>3071</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
@@ -12150,17 +12188,11 @@
         <v>54399.51644492088</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12189,17 +12221,11 @@
         <v>54399.51644492088</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12228,17 +12254,11 @@
         <v>54399.51644492088</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12267,17 +12287,11 @@
         <v>54399.51644492088</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12309,14 +12323,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12345,17 +12353,11 @@
         <v>53514.75214492089</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12387,14 +12389,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12423,17 +12419,11 @@
         <v>53514.75214492089</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12465,14 +12455,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12501,17 +12485,11 @@
         <v>47006.48893798411</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12543,14 +12521,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12582,14 +12554,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12621,14 +12587,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12660,14 +12620,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12696,17 +12650,11 @@
         <v>49262.94223798411</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12738,14 +12686,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12777,14 +12719,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12813,17 +12749,11 @@
         <v>49330.99683273381</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12855,14 +12785,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12894,14 +12818,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12930,17 +12848,11 @@
         <v>49751.05643273381</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12969,17 +12881,11 @@
         <v>49750.0683327338</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13008,17 +12914,11 @@
         <v>49750.0683327338</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13047,17 +12947,11 @@
         <v>49750.0683327338</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13086,17 +12980,11 @@
         <v>51279.5880327338</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13125,17 +13013,11 @@
         <v>51278.6301327338</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13164,17 +13046,11 @@
         <v>51573.0304327338</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13203,17 +13079,11 @@
         <v>52765.1301327338</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13242,17 +13112,11 @@
         <v>55134.2380327338</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13281,17 +13145,11 @@
         <v>55823.54523273381</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13320,17 +13178,11 @@
         <v>56323.54523273381</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13359,17 +13211,11 @@
         <v>56323.54523273381</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13401,14 +13247,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13440,14 +13280,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13479,14 +13313,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13518,14 +13346,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13554,17 +13376,11 @@
         <v>60118.33663273381</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13596,14 +13412,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13632,17 +13442,11 @@
         <v>64363.10053273381</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13671,17 +13475,11 @@
         <v>65928.8274327338</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13713,14 +13511,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13749,17 +13541,11 @@
         <v>65023.6570327338</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13791,14 +13577,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13827,17 +13607,11 @@
         <v>64514.4619327338</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13869,14 +13643,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13905,17 +13673,11 @@
         <v>62275.1457327338</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13947,14 +13709,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13983,17 +13739,11 @@
         <v>62570.7464327338</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14022,17 +13772,11 @@
         <v>62570.7464327338</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14064,14 +13808,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14103,14 +13841,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14142,14 +13874,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14178,17 +13904,11 @@
         <v>61861.7871327338</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14217,17 +13937,11 @@
         <v>62260.1758327338</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14256,17 +13970,11 @@
         <v>58339.1170327338</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14295,17 +14003,11 @@
         <v>54040.08433273381</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14334,17 +14036,11 @@
         <v>54267.57013273381</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14373,17 +14069,11 @@
         <v>54310.40963273381</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14415,14 +14105,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14454,14 +14138,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14490,17 +14168,11 @@
         <v>53356.35763273381</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14529,17 +14201,11 @@
         <v>53478.71753273381</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14568,17 +14234,11 @@
         <v>53637.58323273381</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14610,14 +14270,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14646,17 +14300,11 @@
         <v>52509.37753273382</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14685,17 +14333,11 @@
         <v>50865.85783273382</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14724,17 +14366,11 @@
         <v>50865.85783273382</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14763,17 +14399,11 @@
         <v>50866.85813807733</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14802,17 +14432,11 @@
         <v>50351.94368650385</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14841,17 +14465,11 @@
         <v>48241.05788650386</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14880,17 +14498,11 @@
         <v>48241.15788650385</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14922,14 +14534,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14958,17 +14564,11 @@
         <v>48241.15788650385</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14997,17 +14597,11 @@
         <v>48241.15788650385</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15036,17 +14630,11 @@
         <v>47429.28768650386</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15075,17 +14663,11 @@
         <v>47304.76078650386</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15114,17 +14696,11 @@
         <v>47439.19348650386</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15153,17 +14729,11 @@
         <v>46418.58708650386</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15192,17 +14762,11 @@
         <v>46418.58708650386</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15231,17 +14795,11 @@
         <v>46736.92738650386</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15270,17 +14828,11 @@
         <v>47019.51128650386</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15309,17 +14861,11 @@
         <v>47298.76408650386</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15348,17 +14894,11 @@
         <v>47298.76408650386</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15390,14 +14930,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15426,17 +14960,11 @@
         <v>45907.40028650386</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15465,17 +14993,11 @@
         <v>45938.79748650386</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15504,17 +15026,11 @@
         <v>45333.23978650387</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15546,14 +15062,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15582,17 +15092,11 @@
         <v>44906.05378650386</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15621,17 +15125,11 @@
         <v>44906.05378650386</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15663,14 +15161,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15702,14 +15194,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15741,14 +15227,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15780,14 +15260,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15819,14 +15293,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15858,14 +15326,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15897,14 +15359,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15936,14 +15392,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15975,14 +15425,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16014,14 +15458,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16053,14 +15491,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16092,14 +15524,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16131,14 +15557,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16170,14 +15590,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16209,14 +15623,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16248,14 +15656,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16287,14 +15689,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16323,17 +15719,11 @@
         <v>44397.37058650386</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16362,17 +15752,11 @@
         <v>44399.65638650386</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16401,17 +15785,11 @@
         <v>49979.32198650386</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16443,14 +15821,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16479,17 +15851,11 @@
         <v>49979.42198650385</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16518,17 +15884,11 @@
         <v>49245.87828650385</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16560,14 +15920,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16599,14 +15953,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16638,14 +15986,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16677,14 +16019,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16713,17 +16049,11 @@
         <v>50707.50308650386</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16755,14 +16085,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16794,14 +16118,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16833,14 +16151,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16872,14 +16184,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16911,14 +16217,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16950,14 +16250,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16989,14 +16283,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17028,14 +16316,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17067,14 +16349,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17106,14 +16382,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17145,14 +16415,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17181,17 +16445,11 @@
         <v>50536.91338650385</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17223,14 +16481,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17262,14 +16514,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17301,14 +16547,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17340,14 +16580,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17379,14 +16613,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17418,14 +16646,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17457,14 +16679,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17496,14 +16712,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17535,14 +16745,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17574,14 +16778,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17613,14 +16811,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17652,14 +16844,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17691,14 +16877,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17730,14 +16910,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17769,14 +16943,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17808,14 +16976,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17847,14 +17009,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17886,14 +17042,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17925,14 +17075,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17964,14 +17108,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18003,14 +17141,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18042,14 +17174,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18081,14 +17207,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18120,14 +17240,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18159,14 +17273,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18198,14 +17306,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18237,14 +17339,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18276,14 +17372,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18315,14 +17405,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18354,14 +17438,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18393,14 +17471,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18432,14 +17504,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18471,14 +17537,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18510,14 +17570,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18549,14 +17603,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18588,14 +17636,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18627,14 +17669,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18666,14 +17702,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18705,14 +17735,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18744,14 +17768,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18783,14 +17801,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18822,14 +17834,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18861,14 +17867,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18900,14 +17900,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18939,14 +17933,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18978,14 +17966,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19017,14 +17999,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19056,14 +18032,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19095,14 +18065,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19134,14 +18098,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19173,14 +18131,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19212,14 +18164,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19251,14 +18197,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19290,14 +18230,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19329,14 +18263,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19368,14 +18296,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19407,14 +18329,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19446,14 +18362,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19485,14 +18395,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19524,14 +18428,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19560,23 +18458,15 @@
         <v>68270.60859054764</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>3071</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
-        <v>1.065986649299902</v>
-      </c>
-      <c r="M509" t="n">
-        <v>1.015635179153094</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -19601,7 +18491,7 @@
         <v>68269.60859054764</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19634,7 +18524,7 @@
         <v>68271.60859054764</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19667,7 +18557,7 @@
         <v>67530.52499054764</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19700,7 +18590,7 @@
         <v>67904.91649054764</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19733,7 +18623,7 @@
         <v>71061.10942866314</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19766,7 +18656,7 @@
         <v>71061.10942866314</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19799,7 +18689,7 @@
         <v>71999.4419962086</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19832,7 +18722,7 @@
         <v>71999.4419962086</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19865,7 +18755,7 @@
         <v>73354.6871962086</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19898,7 +18788,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19931,7 +18821,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19964,7 +18854,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19997,7 +18887,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20030,7 +18920,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20063,7 +18953,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20096,7 +18986,7 @@
         <v>72500.79669620859</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20129,7 +19019,7 @@
         <v>73091.30875289341</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20162,7 +19052,7 @@
         <v>73091.30875289341</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20195,7 +19085,7 @@
         <v>73080.20875289341</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20228,7 +19118,7 @@
         <v>73740.27465289341</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20261,7 +19151,7 @@
         <v>73879.91175289341</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20294,7 +19184,7 @@
         <v>74011.12205289342</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20327,7 +19217,7 @@
         <v>75937.51449620861</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20360,7 +19250,7 @@
         <v>75858.24883952379</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20393,7 +19283,7 @@
         <v>75858.24883952379</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20426,7 +19316,7 @@
         <v>77147.41673952379</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20459,7 +19349,7 @@
         <v>77147.41673952379</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20624,7 +19514,7 @@
         <v>78055.6280395238</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20756,7 +19646,7 @@
         <v>76144.7280395238</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20789,7 +19679,7 @@
         <v>76143.72712988159</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20954,7 +19844,7 @@
         <v>78100.45451289129</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20987,7 +19877,7 @@
         <v>78097.45451289129</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21020,7 +19910,7 @@
         <v>77350.24591289129</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21053,7 +19943,7 @@
         <v>77349.24591289129</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21086,7 +19976,7 @@
         <v>77317.24591289129</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21119,7 +20009,7 @@
         <v>78323.39891289129</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21152,7 +20042,7 @@
         <v>78229.49261289129</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21185,7 +20075,7 @@
         <v>78845.1490128913</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21218,7 +20108,7 @@
         <v>79025.1043128913</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21251,7 +20141,7 @@
         <v>80381.12251289131</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21284,7 +20174,7 @@
         <v>80503.11881289131</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21317,7 +20207,7 @@
         <v>80503.11881289131</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21350,7 +20240,7 @@
         <v>80521.1690128913</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21383,7 +20273,7 @@
         <v>83734.47911289131</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21416,7 +20306,7 @@
         <v>83160.56931289131</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21449,7 +20339,7 @@
         <v>82706.57931289131</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21911,7 +20801,7 @@
         <v>82865.77551289131</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21944,7 +20834,7 @@
         <v>82865.87551289132</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21977,7 +20867,7 @@
         <v>80860.16861289131</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22010,7 +20900,7 @@
         <v>80276.59101289131</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22043,7 +20933,7 @@
         <v>80277.71521289131</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22076,7 +20966,7 @@
         <v>88970.64171289132</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22109,7 +20999,7 @@
         <v>88815.91761289131</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22142,7 +21032,7 @@
         <v>88780.81431289131</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22175,7 +21065,7 @@
         <v>88760.81431289131</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22208,7 +21098,7 @@
         <v>89644.53181289131</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22241,7 +21131,7 @@
         <v>89644.53181289131</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22274,7 +21164,7 @@
         <v>89644.53181289131</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22307,7 +21197,7 @@
         <v>89627.53181289131</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22340,7 +21230,7 @@
         <v>87382.6610128913</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22472,7 +21362,7 @@
         <v>87428.8856128913</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22505,7 +21395,7 @@
         <v>87430.4294128913</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22538,7 +21428,7 @@
         <v>87432.4294128913</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22571,7 +21461,7 @@
         <v>87431.69051289131</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22604,7 +21494,7 @@
         <v>87431.69051289131</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22637,7 +21527,7 @@
         <v>87426.69051289131</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22670,7 +21560,7 @@
         <v>87421.69051289131</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22703,7 +21593,7 @@
         <v>87421.69051289131</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22736,7 +21626,7 @@
         <v>88977.84251289131</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22769,7 +21659,7 @@
         <v>89037.84251289131</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22802,7 +21692,7 @@
         <v>86995.49541289131</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22835,7 +21725,7 @@
         <v>86995.59541289131</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22868,7 +21758,7 @@
         <v>86927.29671289132</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -23000,7 +21890,7 @@
         <v>88352.22221289131</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -24782,7 +23672,7 @@
         <v>91348.79495889808</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24815,7 +23705,7 @@
         <v>91348.79495889808</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24848,7 +23738,7 @@
         <v>91348.79495889808</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24881,7 +23771,7 @@
         <v>91348.09495889809</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24914,7 +23804,7 @@
         <v>91358.09495889809</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24947,7 +23837,7 @@
         <v>91318.42105889809</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24980,7 +23870,7 @@
         <v>91317.77746133711</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25013,7 +23903,7 @@
         <v>91317.13396133711</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25046,7 +23936,7 @@
         <v>91317.13396133711</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25079,7 +23969,7 @@
         <v>91247.73206133711</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25145,7 +24035,7 @@
         <v>90515.94886133712</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -25244,7 +24134,7 @@
         <v>90511.81206133713</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25310,7 +24200,7 @@
         <v>90116.88136133713</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25343,7 +24233,7 @@
         <v>90618.09536133714</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25376,7 +24266,7 @@
         <v>89661.46646133714</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25409,7 +24299,7 @@
         <v>89661.46646133714</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25442,7 +24332,7 @@
         <v>89692.86306133714</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25475,7 +24365,7 @@
         <v>89659.90316133713</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25508,7 +24398,7 @@
         <v>89549.99946133714</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25541,7 +24431,7 @@
         <v>91384.59946133714</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25574,7 +24464,7 @@
         <v>91384.59946133714</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25607,7 +24497,7 @@
         <v>86147.56086133714</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25640,7 +24530,7 @@
         <v>86912.23206133714</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25673,7 +24563,7 @@
         <v>86712.23206133714</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25706,7 +24596,7 @@
         <v>89154.23206133714</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -26311,6 +25201,6 @@
       <c r="M713" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest LINK.xlsx
+++ b/BackTest/2019-10-29 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1408,17 +1408,11 @@
         <v>-9106.681451891413</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3093</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1451,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1488,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1525,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1562,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1599,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1632,17 +1606,11 @@
         <v>-9620.810998231302</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1675,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1712,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1749,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1786,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1823,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1860,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1897,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1934,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1971,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2008,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2045,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2082,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2119,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2156,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2193,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2230,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2267,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2304,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2341,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2378,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2415,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2452,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2489,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2526,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2600,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2637,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2674,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2711,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2744,17 +2596,11 @@
         <v>-18505.31066909287</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2783,17 +2629,11 @@
         <v>-19661.51126909287</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2822,17 +2662,11 @@
         <v>-20806.51106909287</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3089</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2861,17 +2695,11 @@
         <v>-20806.51106909287</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2900,17 +2728,11 @@
         <v>-20806.51106909287</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2939,17 +2761,11 @@
         <v>-20248.85816909287</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2978,17 +2794,11 @@
         <v>-20487.21256909287</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3089</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3017,17 +2827,11 @@
         <v>-19933.73666909287</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3060,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3097,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3130,17 +2926,11 @@
         <v>-20575.90956909287</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3087</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3169,17 +2959,11 @@
         <v>-20647.36446909287</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3089</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3208,17 +2992,11 @@
         <v>-22877.58226909287</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3247,17 +3025,11 @@
         <v>-25510.85306909287</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3086</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3286,17 +3058,11 @@
         <v>-26157.75886909287</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3325,17 +3091,11 @@
         <v>-31552.64076909287</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3082</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3364,17 +3124,11 @@
         <v>-32363.05556909287</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3403,17 +3157,11 @@
         <v>-32363.05556909287</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3442,17 +3190,11 @@
         <v>-25038.24266909287</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3485,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3522,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3555,17 +3289,11 @@
         <v>-24836.14266909287</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3073</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3598,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3631,17 +3355,11 @@
         <v>-24836.14266909287</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3670,17 +3388,11 @@
         <v>-23483.77081737321</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3709,17 +3421,11 @@
         <v>-23313.80131737321</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3748,17 +3454,11 @@
         <v>-23111.81254488624</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3087</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3787,17 +3487,11 @@
         <v>-23242.81231884151</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3826,17 +3520,11 @@
         <v>-23242.81231884151</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3865,17 +3553,11 @@
         <v>-23245.81231884151</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>3085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3904,17 +3586,11 @@
         <v>-23245.81231884151</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3084</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3943,17 +3619,11 @@
         <v>-23258.81459009395</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3084</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3982,17 +3652,11 @@
         <v>-23417.5677877189</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3082</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4021,17 +3685,11 @@
         <v>-23417.5677877189</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4060,17 +3718,11 @@
         <v>-23417.5677877189</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4099,17 +3751,11 @@
         <v>-23417.5677877189</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4138,17 +3784,11 @@
         <v>-25604.6657877189</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4177,17 +3817,11 @@
         <v>-25604.6657877189</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4216,17 +3850,11 @@
         <v>-25430.5657877189</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4255,17 +3883,11 @@
         <v>-25549.2348877189</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4302,7 +3924,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -4372,11 +3994,9 @@
         <v>-25502.3701877189</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4411,11 +4031,9 @@
         <v>-25812.6436877189</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4918,11 +4536,9 @@
         <v>-20324.86095977537</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>3090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4996,9 +4612,11 @@
         <v>-20664.60905977537</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3075</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -5070,11 +4688,9 @@
         <v>-20565.70935977537</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5109,11 +4725,9 @@
         <v>-20565.70935977537</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3089</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5148,11 +4762,9 @@
         <v>-20565.70935977537</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>3089</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5187,11 +4799,9 @@
         <v>-19271.76105977537</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>3089</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5226,11 +4836,9 @@
         <v>-19698.94255977537</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>3092</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5339,11 +4947,9 @@
         <v>-19925.82515977537</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>3085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5452,9 +5058,11 @@
         <v>-19925.82515977537</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>3085</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5489,9 +5097,11 @@
         <v>-20480.80465977537</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>3085</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5526,9 +5136,11 @@
         <v>-20479.84675977537</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>3084</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5602,9 +5214,11 @@
         <v>-21766.07405977537</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3092</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -7121,18 +6735,16 @@
         <v>-15028.01654444317</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
@@ -7158,15 +6770,11 @@
         <v>-11481.80704444317</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7195,15 +6803,11 @@
         <v>-11927.67297042742</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7232,15 +6836,11 @@
         <v>-10921.91717042742</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7269,15 +6869,11 @@
         <v>-11146.28847042742</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7306,15 +6902,11 @@
         <v>-11146.28847042742</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7343,15 +6935,11 @@
         <v>-12100.22027042742</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7380,15 +6968,11 @@
         <v>-12669.17197042742</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7421,11 +7005,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7458,11 +7038,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7495,11 +7071,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7532,11 +7104,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7565,15 +7133,11 @@
         <v>-15912.39777042742</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7606,11 +7170,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7643,11 +7203,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7680,11 +7236,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7717,11 +7269,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7754,11 +7302,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7791,11 +7335,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7828,11 +7368,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7865,11 +7401,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7902,11 +7434,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7939,11 +7467,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7976,11 +7500,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8009,15 +7529,11 @@
         <v>-13882.58832012858</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8046,15 +7562,11 @@
         <v>-13898.51982012858</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8083,15 +7595,11 @@
         <v>-16094.57732012858</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8120,15 +7628,11 @@
         <v>-15756.70882012858</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8157,15 +7661,11 @@
         <v>-15756.70882012858</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8194,15 +7694,11 @@
         <v>-15777.85692012858</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8231,15 +7727,11 @@
         <v>-15530.42442012858</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8268,15 +7760,11 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8305,15 +7793,11 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8342,15 +7826,11 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8379,15 +7859,11 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8416,15 +7892,11 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8453,15 +7925,11 @@
         <v>-15156.66012012858</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8490,15 +7958,11 @@
         <v>-13077.50562012858</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8527,15 +7991,11 @@
         <v>-10551.83582012858</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8564,15 +8024,11 @@
         <v>-10615.57802012858</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8601,15 +8057,11 @@
         <v>-10987.21222012858</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8638,15 +8090,11 @@
         <v>-11019.96812012858</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8675,15 +8123,11 @@
         <v>-8888.813920128585</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8712,15 +8156,11 @@
         <v>-9186.956420128585</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8749,15 +8189,11 @@
         <v>-10393.18042012858</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8790,11 +8226,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8827,11 +8259,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8864,11 +8292,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8901,11 +8325,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8938,11 +8358,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8975,11 +8391,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9012,11 +8424,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9049,11 +8457,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9086,11 +8490,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9123,11 +8523,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9160,11 +8556,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9197,11 +8589,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9234,11 +8622,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9271,11 +8655,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9308,11 +8688,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9345,11 +8721,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9382,11 +8754,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9419,11 +8787,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9456,11 +8820,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +8853,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9530,11 +8886,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9567,11 +8919,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9604,11 +8952,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9641,11 +8985,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9678,11 +9018,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9715,11 +9051,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9752,11 +9084,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9789,11 +9117,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9826,11 +9150,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9863,11 +9183,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9900,11 +9216,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9937,11 +9249,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9974,11 +9282,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10011,11 +9315,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10048,11 +9348,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10085,11 +9381,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10122,11 +9414,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10159,11 +9447,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10196,11 +9480,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10233,11 +9513,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10270,11 +9546,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10307,11 +9579,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10344,11 +9612,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10377,15 +9641,11 @@
         <v>6236.492435808919</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10414,15 +9674,11 @@
         <v>10411.45543580892</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10451,15 +9707,11 @@
         <v>8905.874671637293</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10488,15 +9740,11 @@
         <v>8805.874671637293</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10525,15 +9773,11 @@
         <v>8806.115071637294</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10562,15 +9806,11 @@
         <v>8806.115071637294</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10599,15 +9839,11 @@
         <v>8806.115071637294</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10636,15 +9872,11 @@
         <v>8614.288171637294</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10673,15 +9905,11 @@
         <v>7808.174871637294</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10710,15 +9938,11 @@
         <v>7809.174871637294</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10747,15 +9971,11 @@
         <v>7809.174871637294</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10784,15 +10004,11 @@
         <v>7809.174871637294</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10821,15 +10037,11 @@
         <v>7809.174871637294</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10858,15 +10070,11 @@
         <v>9194.083771637293</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10895,15 +10103,11 @@
         <v>10117.87387163729</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10932,15 +10136,11 @@
         <v>9061.160271637294</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10969,15 +10169,11 @@
         <v>9384.475471637295</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11006,15 +10202,11 @@
         <v>14238.41257163729</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11047,11 +10239,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11084,11 +10272,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11121,11 +10305,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11158,11 +10338,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11195,11 +10371,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11232,11 +10404,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11269,11 +10437,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11306,11 +10470,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11343,11 +10503,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11380,11 +10536,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11417,11 +10569,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11454,11 +10602,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11491,11 +10635,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11528,11 +10668,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11565,11 +10701,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11602,11 +10734,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11639,11 +10767,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11676,11 +10800,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11713,11 +10833,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11750,11 +10866,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11787,11 +10899,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11824,11 +10932,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11861,11 +10965,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11898,11 +10998,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11935,11 +11031,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11972,11 +11064,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12009,11 +11097,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12046,11 +11130,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12083,11 +11163,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12120,11 +11196,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12153,16 +11225,14 @@
         <v>54736.33404492088</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
       <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
@@ -12188,7 +11258,7 @@
         <v>54399.51644492088</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12221,7 +11291,7 @@
         <v>54399.51644492088</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12254,7 +11324,7 @@
         <v>54399.51644492088</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12650,7 +11720,7 @@
         <v>49262.94223798411</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12848,7 +11918,7 @@
         <v>49751.05643273381</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12881,7 +11951,7 @@
         <v>49750.0683327338</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12914,7 +11984,7 @@
         <v>49750.0683327338</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12947,7 +12017,7 @@
         <v>49750.0683327338</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12980,7 +12050,7 @@
         <v>51279.5880327338</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13013,7 +12083,7 @@
         <v>51278.6301327338</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13046,7 +12116,7 @@
         <v>51573.0304327338</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13079,7 +12149,7 @@
         <v>52765.1301327338</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13112,7 +12182,7 @@
         <v>55134.2380327338</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13145,7 +12215,7 @@
         <v>55823.54523273381</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13178,7 +12248,7 @@
         <v>56323.54523273381</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13211,7 +12281,7 @@
         <v>56323.54523273381</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13376,7 +12446,7 @@
         <v>60118.33663273381</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13442,7 +12512,7 @@
         <v>64363.10053273381</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13475,7 +12545,7 @@
         <v>65928.8274327338</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13541,7 +12611,7 @@
         <v>65023.6570327338</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13607,7 +12677,7 @@
         <v>64514.4619327338</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13673,7 +12743,7 @@
         <v>62275.1457327338</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13739,7 +12809,7 @@
         <v>62570.7464327338</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13772,7 +12842,7 @@
         <v>62570.7464327338</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13904,7 +12974,7 @@
         <v>61861.7871327338</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13937,7 +13007,7 @@
         <v>62260.1758327338</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13970,7 +13040,7 @@
         <v>58339.1170327338</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14003,7 +13073,7 @@
         <v>54040.08433273381</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14036,7 +13106,7 @@
         <v>54267.57013273381</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14069,7 +13139,7 @@
         <v>54310.40963273381</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14168,7 +13238,7 @@
         <v>53356.35763273381</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14201,7 +13271,7 @@
         <v>53478.71753273381</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14234,7 +13304,7 @@
         <v>53637.58323273381</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14300,7 +13370,7 @@
         <v>52509.37753273382</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14333,7 +13403,7 @@
         <v>50865.85783273382</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14366,7 +13436,7 @@
         <v>50865.85783273382</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14399,7 +13469,7 @@
         <v>50866.85813807733</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14432,7 +13502,7 @@
         <v>50351.94368650385</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14465,7 +13535,7 @@
         <v>48241.05788650386</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14498,7 +13568,7 @@
         <v>48241.15788650385</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14564,7 +13634,7 @@
         <v>48241.15788650385</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14597,7 +13667,7 @@
         <v>48241.15788650385</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14630,7 +13700,7 @@
         <v>47429.28768650386</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14663,7 +13733,7 @@
         <v>47304.76078650386</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14696,7 +13766,7 @@
         <v>47439.19348650386</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14729,7 +13799,7 @@
         <v>46418.58708650386</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14762,7 +13832,7 @@
         <v>46418.58708650386</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14795,7 +13865,7 @@
         <v>46736.92738650386</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14828,7 +13898,7 @@
         <v>47019.51128650386</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14861,7 +13931,7 @@
         <v>47298.76408650386</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14894,7 +13964,7 @@
         <v>47298.76408650386</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14960,7 +14030,7 @@
         <v>45907.40028650386</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14993,7 +14063,7 @@
         <v>45938.79748650386</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15026,7 +14096,7 @@
         <v>45333.23978650387</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15092,7 +14162,7 @@
         <v>44906.05378650386</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15125,7 +14195,7 @@
         <v>44906.05378650386</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -18029,7 +17099,7 @@
         <v>57319.27588650385</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18062,7 +17132,7 @@
         <v>57397.02868650385</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18095,7 +17165,7 @@
         <v>58140.02438650385</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18887,7 +17957,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18920,7 +17990,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18953,7 +18023,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18986,7 +18056,7 @@
         <v>72500.79669620859</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19019,7 +18089,7 @@
         <v>73091.30875289341</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19052,7 +18122,7 @@
         <v>73091.30875289341</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19085,7 +18155,7 @@
         <v>73080.20875289341</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19118,7 +18188,7 @@
         <v>73740.27465289341</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19151,7 +18221,7 @@
         <v>73879.91175289341</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19184,7 +18254,7 @@
         <v>74011.12205289342</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19217,7 +18287,7 @@
         <v>75937.51449620861</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19250,7 +18320,7 @@
         <v>75858.24883952379</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19283,7 +18353,7 @@
         <v>75858.24883952379</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19316,7 +18386,7 @@
         <v>77147.41673952379</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19349,7 +18419,7 @@
         <v>77147.41673952379</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19514,7 +18584,7 @@
         <v>78055.6280395238</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19646,7 +18716,7 @@
         <v>76144.7280395238</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19679,7 +18749,7 @@
         <v>76143.72712988159</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19844,7 +18914,7 @@
         <v>78100.45451289129</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19877,7 +18947,7 @@
         <v>78097.45451289129</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19910,7 +18980,7 @@
         <v>77350.24591289129</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19943,7 +19013,7 @@
         <v>77349.24591289129</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19976,7 +19046,7 @@
         <v>77317.24591289129</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20009,7 +19079,7 @@
         <v>78323.39891289129</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20042,7 +19112,7 @@
         <v>78229.49261289129</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20075,7 +19145,7 @@
         <v>78845.1490128913</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20108,7 +19178,7 @@
         <v>79025.1043128913</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20141,7 +19211,7 @@
         <v>80381.12251289131</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20174,7 +19244,7 @@
         <v>80503.11881289131</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20207,7 +19277,7 @@
         <v>80503.11881289131</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20240,7 +19310,7 @@
         <v>80521.1690128913</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20273,7 +19343,7 @@
         <v>83734.47911289131</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20306,7 +19376,7 @@
         <v>83160.56931289131</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20339,7 +19409,7 @@
         <v>82706.57931289131</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20801,7 +19871,7 @@
         <v>82865.77551289131</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20834,7 +19904,7 @@
         <v>82865.87551289132</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20867,7 +19937,7 @@
         <v>80860.16861289131</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20900,7 +19970,7 @@
         <v>80276.59101289131</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20933,7 +20003,7 @@
         <v>80277.71521289131</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20966,7 +20036,7 @@
         <v>88970.64171289132</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20999,7 +20069,7 @@
         <v>88815.91761289131</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21032,7 +20102,7 @@
         <v>88780.81431289131</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21065,7 +20135,7 @@
         <v>88760.81431289131</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21098,7 +20168,7 @@
         <v>89644.53181289131</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21131,7 +20201,7 @@
         <v>89644.53181289131</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21164,7 +20234,7 @@
         <v>89644.53181289131</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21197,7 +20267,7 @@
         <v>89627.53181289131</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21230,7 +20300,7 @@
         <v>87382.6610128913</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21362,7 +20432,7 @@
         <v>87428.8856128913</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21395,7 +20465,7 @@
         <v>87430.4294128913</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21428,7 +20498,7 @@
         <v>87432.4294128913</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21461,7 +20531,7 @@
         <v>87431.69051289131</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21494,7 +20564,7 @@
         <v>87431.69051289131</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21527,7 +20597,7 @@
         <v>87426.69051289131</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21560,7 +20630,7 @@
         <v>87421.69051289131</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21593,7 +20663,7 @@
         <v>87421.69051289131</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21626,7 +20696,7 @@
         <v>88977.84251289131</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21659,7 +20729,7 @@
         <v>89037.84251289131</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21692,7 +20762,7 @@
         <v>86995.49541289131</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21725,7 +20795,7 @@
         <v>86995.59541289131</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21758,7 +20828,7 @@
         <v>86927.29671289132</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21890,7 +20960,7 @@
         <v>88352.22221289131</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -24134,7 +23204,7 @@
         <v>90511.81206133713</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24200,7 +23270,7 @@
         <v>90116.88136133713</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24233,7 +23303,7 @@
         <v>90618.09536133714</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24266,7 +23336,7 @@
         <v>89661.46646133714</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24299,7 +23369,7 @@
         <v>89661.46646133714</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24332,7 +23402,7 @@
         <v>89692.86306133714</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24365,7 +23435,7 @@
         <v>89659.90316133713</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24398,7 +23468,7 @@
         <v>89549.99946133714</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24431,7 +23501,7 @@
         <v>91384.59946133714</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24464,7 +23534,7 @@
         <v>91384.59946133714</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24497,7 +23567,7 @@
         <v>86147.56086133714</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24530,7 +23600,7 @@
         <v>86912.23206133714</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24563,7 +23633,7 @@
         <v>86712.23206133714</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24596,7 +23666,7 @@
         <v>89154.23206133714</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25201,6 +24271,6 @@
       <c r="M713" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest LINK.xlsx
+++ b/BackTest/2019-10-29 BackTest LINK.xlsx
@@ -3652,11 +3652,17 @@
         <v>-23417.5677877189</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3082</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3691,17 @@
         <v>-23417.5677877189</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3080</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3730,17 @@
         <v>-23417.5677877189</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3080</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3769,17 @@
         <v>-23417.5677877189</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3080</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3808,17 @@
         <v>-25604.6657877189</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3080</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3847,17 @@
         <v>-25604.6657877189</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3070</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3886,17 @@
         <v>-25430.5657877189</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3070</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3925,17 @@
         <v>-25549.2348877189</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3079</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3924,7 +3972,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -3994,9 +4042,11 @@
         <v>-25502.3701877189</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3070</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4031,9 +4081,11 @@
         <v>-25812.6436877189</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3080</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4536,9 +4588,11 @@
         <v>-20324.86095977537</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3090</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4688,9 +4742,11 @@
         <v>-20565.70935977537</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3080</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5058,11 +5114,9 @@
         <v>-19925.82515977537</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>3085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5097,11 +5151,9 @@
         <v>-20480.80465977537</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>3085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5136,11 +5188,9 @@
         <v>-20479.84675977537</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>3084</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5175,11 +5225,9 @@
         <v>-20479.84675977537</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3092</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5214,11 +5262,9 @@
         <v>-21766.07405977537</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>3092</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5253,11 +5299,9 @@
         <v>-21751.71843276572</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -6735,16 +6779,18 @@
         <v>-15028.01654444317</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
       <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
@@ -6770,11 +6816,15 @@
         <v>-11481.80704444317</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6803,11 +6853,15 @@
         <v>-11927.67297042742</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6836,11 +6890,15 @@
         <v>-10921.91717042742</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6869,11 +6927,15 @@
         <v>-11146.28847042742</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6902,11 +6964,15 @@
         <v>-11146.28847042742</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6935,11 +7001,15 @@
         <v>-12100.22027042742</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6968,11 +7038,15 @@
         <v>-12669.17197042742</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7005,7 +7079,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7038,7 +7116,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7071,7 +7153,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7104,7 +7190,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7133,11 +7223,15 @@
         <v>-15912.39777042742</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7170,7 +7264,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7203,7 +7301,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7236,7 +7338,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7269,7 +7375,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7302,7 +7412,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7335,7 +7449,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7368,7 +7486,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7401,7 +7523,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7434,7 +7560,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7467,7 +7597,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7500,7 +7634,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7529,11 +7667,15 @@
         <v>-13882.58832012858</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7562,11 +7704,15 @@
         <v>-13898.51982012858</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7595,11 +7741,15 @@
         <v>-16094.57732012858</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7628,11 +7778,15 @@
         <v>-15756.70882012858</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7661,11 +7815,15 @@
         <v>-15756.70882012858</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7694,11 +7852,15 @@
         <v>-15777.85692012858</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7727,11 +7889,15 @@
         <v>-15530.42442012858</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7760,11 +7926,15 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7793,11 +7963,15 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7826,11 +8000,15 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7859,11 +8037,15 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7892,11 +8074,15 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7925,11 +8111,15 @@
         <v>-15156.66012012858</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7958,11 +8148,15 @@
         <v>-13077.50562012858</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7991,11 +8185,15 @@
         <v>-10551.83582012858</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8024,11 +8222,15 @@
         <v>-10615.57802012858</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8057,11 +8259,15 @@
         <v>-10987.21222012858</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8090,11 +8296,15 @@
         <v>-11019.96812012858</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8123,11 +8333,15 @@
         <v>-8888.813920128585</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8156,11 +8370,15 @@
         <v>-9186.956420128585</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8189,11 +8407,15 @@
         <v>-10393.18042012858</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8226,7 +8448,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8259,7 +8485,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8292,7 +8522,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8325,7 +8559,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8358,7 +8596,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8391,7 +8633,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8424,7 +8670,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8457,7 +8707,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8490,7 +8744,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8523,7 +8781,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8556,7 +8818,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8589,7 +8855,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8622,7 +8892,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8655,7 +8929,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8688,7 +8966,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8721,7 +9003,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8754,7 +9040,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8787,7 +9077,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8820,7 +9114,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8853,7 +9151,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8886,7 +9188,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8919,7 +9225,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8952,7 +9262,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8985,7 +9299,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9018,7 +9336,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9051,7 +9373,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9084,7 +9410,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9117,7 +9447,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9150,7 +9484,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9183,7 +9521,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9216,7 +9558,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9249,7 +9595,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9282,7 +9632,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9315,7 +9669,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9348,7 +9706,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9381,7 +9743,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9414,7 +9780,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9447,7 +9817,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9480,7 +9854,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9513,7 +9891,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9546,7 +9928,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9579,7 +9965,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9612,7 +10002,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9641,11 +10035,15 @@
         <v>6236.492435808919</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9674,11 +10072,15 @@
         <v>10411.45543580892</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9707,11 +10109,15 @@
         <v>8905.874671637293</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9740,11 +10146,15 @@
         <v>8805.874671637293</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9773,11 +10183,15 @@
         <v>8806.115071637294</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9806,11 +10220,15 @@
         <v>8806.115071637294</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9839,11 +10257,15 @@
         <v>8806.115071637294</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9872,11 +10294,15 @@
         <v>8614.288171637294</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9905,11 +10331,15 @@
         <v>7808.174871637294</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9938,11 +10368,15 @@
         <v>7809.174871637294</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9971,11 +10405,15 @@
         <v>7809.174871637294</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10004,11 +10442,15 @@
         <v>7809.174871637294</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10037,11 +10479,15 @@
         <v>7809.174871637294</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10070,11 +10516,15 @@
         <v>9194.083771637293</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10103,11 +10553,15 @@
         <v>10117.87387163729</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10136,11 +10590,15 @@
         <v>9061.160271637294</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10169,11 +10627,15 @@
         <v>9384.475471637295</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10202,11 +10664,15 @@
         <v>14238.41257163729</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10239,7 +10705,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10272,7 +10742,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10305,7 +10779,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10338,7 +10816,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10371,7 +10853,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10404,7 +10890,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10437,7 +10927,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10470,7 +10964,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10503,7 +11001,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10536,7 +11038,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10569,7 +11075,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10602,7 +11112,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10631,14 +11145,16 @@
         <v>60016.2955716373</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
@@ -10664,7 +11180,7 @@
         <v>56963.37807163729</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -17099,7 +17615,7 @@
         <v>57319.27588650385</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17132,7 +17648,7 @@
         <v>57397.02868650385</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17165,7 +17681,7 @@
         <v>58140.02438650385</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17759,7 +18275,7 @@
         <v>71999.4419962086</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17792,7 +18308,7 @@
         <v>71999.4419962086</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17825,7 +18341,7 @@
         <v>73354.6871962086</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17858,7 +18374,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17891,7 +18407,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17924,7 +18440,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17957,7 +18473,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17990,7 +18506,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18023,7 +18539,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18056,7 +18572,7 @@
         <v>72500.79669620859</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18089,7 +18605,7 @@
         <v>73091.30875289341</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18122,7 +18638,7 @@
         <v>73091.30875289341</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18155,7 +18671,7 @@
         <v>73080.20875289341</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18188,7 +18704,7 @@
         <v>73740.27465289341</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18221,7 +18737,7 @@
         <v>73879.91175289341</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18254,7 +18770,7 @@
         <v>74011.12205289342</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18287,7 +18803,7 @@
         <v>75937.51449620861</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18320,7 +18836,7 @@
         <v>75858.24883952379</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18353,7 +18869,7 @@
         <v>75858.24883952379</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18386,7 +18902,7 @@
         <v>77147.41673952379</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18419,7 +18935,7 @@
         <v>77147.41673952379</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18452,7 +18968,7 @@
         <v>77901.66193952379</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18485,7 +19001,7 @@
         <v>78255.6280395238</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18518,7 +19034,7 @@
         <v>78255.6280395238</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18551,7 +19067,7 @@
         <v>78155.6280395238</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18584,7 +19100,7 @@
         <v>78055.6280395238</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18617,7 +19133,7 @@
         <v>78055.52803952379</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18650,7 +19166,7 @@
         <v>78345.6280395238</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18683,7 +19199,7 @@
         <v>76144.6280395238</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18716,7 +19232,7 @@
         <v>76144.7280395238</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18749,7 +19265,7 @@
         <v>76143.72712988159</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18782,7 +19298,7 @@
         <v>75535.01742988158</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18815,7 +19331,7 @@
         <v>75535.01742988158</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18881,7 +19397,7 @@
         <v>78105.45602988158</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18914,7 +19430,7 @@
         <v>78100.45451289129</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19607,7 +20123,7 @@
         <v>83194.49541289131</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
